--- a/output/1Y_P74_KFSDIV.xlsx
+++ b/output/1Y_P74_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>12.6545</v>
       </c>
       <c r="C2" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D2" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>12.2345</v>
       </c>
       <c r="C3" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D3" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E3" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="F3" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="H3" s="1">
-        <v>9668.1023</v>
+        <v>9629.413500000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9668.1023</v>
+        <v>9629.413500000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0332</v>
+        <v>-0.0371</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>12.1636</v>
       </c>
       <c r="C4" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D4" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E4" s="1">
-        <v>1607.5935</v>
+        <v>1604.377</v>
       </c>
       <c r="F4" s="1">
-        <v>822.125</v>
+        <v>820.4792</v>
       </c>
       <c r="H4" s="1">
-        <v>19554.1239</v>
+        <v>19476.0134</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19554.1239</v>
+        <v>19476.0134</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.441</v>
+        <v>12.4659</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0058</v>
+        <v>-0.0078</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>11.8145</v>
       </c>
       <c r="C5" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D5" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E5" s="1">
-        <v>2429.7185</v>
+        <v>2424.8561</v>
       </c>
       <c r="F5" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="H5" s="1">
-        <v>28705.9092</v>
+        <v>28591.2362</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>28705.9092</v>
+        <v>28591.2362</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.3471</v>
+        <v>12.3719</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0287</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,46 +921,46 @@
         <v>11.2352</v>
       </c>
       <c r="C6" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D6" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E6" s="1">
-        <v>3276.136</v>
+        <v>3269.5791</v>
       </c>
       <c r="F6" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="H6" s="1">
-        <v>36808.0435</v>
+        <v>36660.8101</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>36808.0435</v>
+        <v>36660.8101</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>12.2095</v>
+        <v>12.234</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>656.024</v>
+        <v>654.7112</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9343.976000000001</v>
+        <v>-9345.2888</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.049</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>10.8241</v>
       </c>
       <c r="C7" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D7" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E7" s="1">
-        <v>4166.1879</v>
+        <v>4157.8601</v>
       </c>
       <c r="F7" s="1">
-        <v>932.5226</v>
+        <v>930.6395</v>
       </c>
       <c r="H7" s="1">
-        <v>45095.2347</v>
+        <v>44914.8675</v>
       </c>
       <c r="I7" s="1">
-        <v>656.024</v>
+        <v>654.7112</v>
       </c>
       <c r="J7" s="1">
-        <v>45751.2587</v>
+        <v>45569.5787</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>12.0014</v>
+        <v>12.0254</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10093.7177</v>
+        <v>-10093.5302</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0226</v>
+        <v>-0.0234</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>11.2543</v>
       </c>
       <c r="C8" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D8" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E8" s="1">
-        <v>5098.7105</v>
+        <v>5088.4996</v>
       </c>
       <c r="F8" s="1">
-        <v>896.8765</v>
+        <v>895.0625</v>
       </c>
       <c r="H8" s="1">
-        <v>57382.4177</v>
+        <v>57153.0096</v>
       </c>
       <c r="I8" s="1">
-        <v>562.3063</v>
+        <v>561.181</v>
       </c>
       <c r="J8" s="1">
-        <v>57944.7239</v>
+        <v>57714.1906</v>
       </c>
       <c r="K8" s="1">
-        <v>60093.7177</v>
+        <v>60093.5302</v>
       </c>
       <c r="L8" s="1">
-        <v>11.7861</v>
+        <v>11.8097</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10093.7177</v>
+        <v>-10093.5302</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0393</v>
+        <v>0.0386</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,46 +1071,46 @@
         <v>10.5675</v>
       </c>
       <c r="C9" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D9" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E9" s="1">
-        <v>5995.5871</v>
+        <v>5983.5621</v>
       </c>
       <c r="F9" s="1">
-        <v>955.1571</v>
+        <v>953.236</v>
       </c>
       <c r="H9" s="1">
-        <v>63358.3662</v>
+        <v>63105.039</v>
       </c>
       <c r="I9" s="1">
-        <v>468.5886</v>
+        <v>467.6508</v>
       </c>
       <c r="J9" s="1">
-        <v>63826.9548</v>
+        <v>63572.6899</v>
       </c>
       <c r="K9" s="1">
-        <v>70187.4354</v>
+        <v>70187.0603</v>
       </c>
       <c r="L9" s="1">
-        <v>11.7065</v>
+        <v>11.73</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1376.6518</v>
+        <v>1373.8949</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8717.0659</v>
+        <v>-8719.6353</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0606</v>
+        <v>-0.0612</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E10" s="1">
-        <v>6950.7441</v>
+        <v>6936.7981</v>
       </c>
       <c r="F10" s="1">
-        <v>1047.244</v>
+        <v>1045.059</v>
       </c>
       <c r="H10" s="1">
-        <v>69278.0665</v>
+        <v>69001.0242</v>
       </c>
       <c r="I10" s="1">
-        <v>1751.5227</v>
+        <v>1748.0155</v>
       </c>
       <c r="J10" s="1">
-        <v>71029.5892</v>
+        <v>70749.0398</v>
       </c>
       <c r="K10" s="1">
-        <v>80281.1531</v>
+        <v>80280.59050000001</v>
       </c>
       <c r="L10" s="1">
-        <v>11.55</v>
+        <v>11.5731</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10437.8807</v>
+        <v>-10437.0039</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0379</v>
+        <v>-0.0384</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>10.0064</v>
       </c>
       <c r="C11" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D11" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E11" s="1">
-        <v>7997.9881</v>
+        <v>7981.857</v>
       </c>
       <c r="F11" s="1">
-        <v>1043.1205</v>
+        <v>1040.9419</v>
       </c>
       <c r="H11" s="1">
-        <v>80031.068</v>
+        <v>79710.0172</v>
       </c>
       <c r="I11" s="1">
-        <v>1313.642</v>
+        <v>1311.0117</v>
       </c>
       <c r="J11" s="1">
-        <v>81344.71000000001</v>
+        <v>81021.0289</v>
       </c>
       <c r="K11" s="1">
-        <v>90719.0338</v>
+        <v>90717.5944</v>
       </c>
       <c r="L11" s="1">
-        <v>11.3427</v>
+        <v>11.3655</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10437.8807</v>
+        <v>-10437.0039</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0039</v>
+        <v>0.0034</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,46 +1221,46 @@
         <v>10.0129</v>
       </c>
       <c r="C12" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E12" s="1">
-        <v>9041.1086</v>
+        <v>9022.7989</v>
       </c>
       <c r="F12" s="1">
-        <v>1042.4433</v>
+        <v>1040.2675</v>
       </c>
       <c r="H12" s="1">
-        <v>90527.71580000001</v>
+        <v>90163.92750000001</v>
       </c>
       <c r="I12" s="1">
-        <v>875.7613</v>
+        <v>874.0078</v>
       </c>
       <c r="J12" s="1">
-        <v>91403.47719999999</v>
+        <v>91037.9353</v>
       </c>
       <c r="K12" s="1">
-        <v>101156.9145</v>
+        <v>101154.5983</v>
       </c>
       <c r="L12" s="1">
-        <v>11.1886</v>
+        <v>11.211</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>2159.4568</v>
+        <v>2155.1014</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8278.4239</v>
+        <v>-8281.9025</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0005999999999999999</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>10.4583</v>
       </c>
       <c r="C13" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D13" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E13" s="1">
-        <v>10083.5519</v>
+        <v>10063.0664</v>
       </c>
       <c r="F13" s="1">
-        <v>1204.5301</v>
+        <v>1201.617</v>
       </c>
       <c r="H13" s="1">
-        <v>105456.8105</v>
+        <v>105032.2497</v>
       </c>
       <c r="I13" s="1">
-        <v>2597.3375</v>
+        <v>2592.1053</v>
       </c>
       <c r="J13" s="1">
-        <v>108054.148</v>
+        <v>107624.355</v>
       </c>
       <c r="K13" s="1">
-        <v>111594.7952</v>
+        <v>111591.6022</v>
       </c>
       <c r="L13" s="1">
-        <v>11.067</v>
+        <v>11.0892</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12597.3375</v>
+        <v>-12592.1053</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.06560000000000001</v>
+        <v>0.06519999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>10.3341</v>
       </c>
       <c r="C14" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D14" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E14" s="1">
-        <v>11288.082</v>
+        <v>11264.6835</v>
       </c>
       <c r="F14" s="1">
-        <v>-11288.082</v>
+        <v>-11264.6835</v>
       </c>
       <c r="H14" s="1">
-        <v>116652.1682</v>
+        <v>116177.1865</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>116652.1682</v>
+        <v>116177.1865</v>
       </c>
       <c r="K14" s="1">
-        <v>124192.1326</v>
+        <v>124183.7074</v>
       </c>
       <c r="L14" s="1">
-        <v>11.0021</v>
+        <v>11.0242</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>116652.1682</v>
+        <v>116177.1865</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0119</v>
+        <v>-0.0123</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>12.6545</v>
       </c>
       <c r="C2" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D2" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>12.2345</v>
       </c>
       <c r="C3" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D3" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E3" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="F3" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9668.1023</v>
+        <v>9629.413500000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9668.1023</v>
+        <v>9629.413500000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0332</v>
+        <v>-0.0371</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>12.1636</v>
       </c>
       <c r="C4" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D4" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E4" s="1">
-        <v>1607.5935</v>
+        <v>1604.377</v>
       </c>
       <c r="F4" s="1">
-        <v>822.125</v>
+        <v>820.4792</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>19554.1239</v>
+        <v>19476.0134</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19554.1239</v>
+        <v>19476.0134</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.441</v>
+        <v>12.4659</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0058</v>
+        <v>-0.0078</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>11.8145</v>
       </c>
       <c r="C5" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D5" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E5" s="1">
-        <v>2429.7185</v>
+        <v>2424.8561</v>
       </c>
       <c r="F5" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>28705.9092</v>
+        <v>28591.2362</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>28705.9092</v>
+        <v>28591.2362</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.3471</v>
+        <v>12.3719</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0287</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,49 +1662,49 @@
         <v>11.2352</v>
       </c>
       <c r="C6" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D6" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E6" s="1">
-        <v>3276.136</v>
+        <v>3269.5791</v>
       </c>
       <c r="F6" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>36808.0435</v>
+        <v>36660.8101</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>36808.0435</v>
+        <v>36660.8101</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>12.2095</v>
+        <v>12.234</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>656.024</v>
+        <v>654.7112</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9343.976000000001</v>
+        <v>-9345.2888</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.049</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>10.8241</v>
       </c>
       <c r="C7" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D7" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E7" s="1">
-        <v>4166.1879</v>
+        <v>4157.8601</v>
       </c>
       <c r="F7" s="1">
-        <v>984.4721</v>
+        <v>982.3813</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>45095.2347</v>
+        <v>44914.8675</v>
       </c>
       <c r="I7" s="1">
-        <v>656.024</v>
+        <v>654.7112</v>
       </c>
       <c r="J7" s="1">
-        <v>45751.2587</v>
+        <v>45569.5787</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>12.0014</v>
+        <v>12.0254</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10656.024</v>
+        <v>-10654.7112</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0226</v>
+        <v>-0.0234</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>11.2543</v>
       </c>
       <c r="C8" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D8" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E8" s="1">
-        <v>5150.66</v>
+        <v>5140.2414</v>
       </c>
       <c r="F8" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>57967.0726</v>
+        <v>57734.1629</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>57967.0726</v>
+        <v>57734.1629</v>
       </c>
       <c r="K8" s="1">
-        <v>60656.024</v>
+        <v>60654.7112</v>
       </c>
       <c r="L8" s="1">
-        <v>11.7764</v>
+        <v>11.8</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0397</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,49 +1821,49 @@
         <v>10.5675</v>
       </c>
       <c r="C9" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D9" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E9" s="1">
-        <v>6039.2092</v>
+        <v>6027.0099</v>
       </c>
       <c r="F9" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>63819.3437</v>
+        <v>63563.2571</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>63819.3437</v>
+        <v>63563.2571</v>
       </c>
       <c r="K9" s="1">
-        <v>70656.024</v>
+        <v>70654.71120000001</v>
       </c>
       <c r="L9" s="1">
-        <v>11.6995</v>
+        <v>11.723</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1390.6782</v>
+        <v>1387.8652</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8609.3218</v>
+        <v>-8612.1348</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.061</v>
+        <v>-0.0616</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E10" s="1">
-        <v>6985.4979</v>
+        <v>6971.4129</v>
       </c>
       <c r="F10" s="1">
-        <v>1142.8392</v>
+        <v>1140.2689</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>69624.45759999999</v>
+        <v>69345.34110000001</v>
       </c>
       <c r="I10" s="1">
-        <v>1390.6782</v>
+        <v>1387.8652</v>
       </c>
       <c r="J10" s="1">
-        <v>71015.1358</v>
+        <v>70733.20630000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80656.024</v>
+        <v>80654.71120000001</v>
       </c>
       <c r="L10" s="1">
-        <v>11.5462</v>
+        <v>11.5693</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11390.6782</v>
+        <v>-11387.8652</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.038</v>
+        <v>-0.0385</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>10.0064</v>
       </c>
       <c r="C11" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D11" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E11" s="1">
-        <v>8128.3371</v>
+        <v>8111.6818</v>
       </c>
       <c r="F11" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>81335.39230000001</v>
+        <v>81006.4987</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>81335.39230000001</v>
+        <v>81006.4987</v>
       </c>
       <c r="K11" s="1">
-        <v>92046.7022</v>
+        <v>92042.5763</v>
       </c>
       <c r="L11" s="1">
-        <v>11.3242</v>
+        <v>11.3469</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1969,7 +1969,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.004</v>
+        <v>0.0034</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,49 +1980,49 @@
         <v>10.0129</v>
       </c>
       <c r="C12" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E12" s="1">
-        <v>9127.6975</v>
+        <v>9109.0388</v>
       </c>
       <c r="F12" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>91394.72229999999</v>
+        <v>91025.71339999999</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>91394.72229999999</v>
+        <v>91025.71339999999</v>
       </c>
       <c r="K12" s="1">
-        <v>102046.7022</v>
+        <v>102042.5763</v>
       </c>
       <c r="L12" s="1">
-        <v>11.1799</v>
+        <v>11.2023</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>2194.651</v>
+        <v>2190.1541</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7805.349</v>
+        <v>-7809.8459</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0005999999999999999</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>10.4583</v>
       </c>
       <c r="C13" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D13" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E13" s="1">
-        <v>10126.4092</v>
+        <v>10105.7496</v>
       </c>
       <c r="F13" s="1">
-        <v>1166.0261</v>
+        <v>1163.2603</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>105905.0249</v>
+        <v>105477.751</v>
       </c>
       <c r="I13" s="1">
-        <v>2194.651</v>
+        <v>2190.1541</v>
       </c>
       <c r="J13" s="1">
-        <v>108099.6759</v>
+        <v>107667.9051</v>
       </c>
       <c r="K13" s="1">
-        <v>112046.7022</v>
+        <v>112042.5763</v>
       </c>
       <c r="L13" s="1">
-        <v>11.0648</v>
+        <v>11.087</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12194.651</v>
+        <v>-12190.1541</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.06610000000000001</v>
+        <v>0.06569999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>10.3341</v>
       </c>
       <c r="C14" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D14" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E14" s="1">
-        <v>11292.4353</v>
+        <v>11269.0099</v>
       </c>
       <c r="F14" s="1">
-        <v>-11292.4353</v>
+        <v>-11269.0099</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>116697.1555</v>
+        <v>116221.8072</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>116697.1555</v>
+        <v>116221.8072</v>
       </c>
       <c r="K14" s="1">
-        <v>124241.3532</v>
+        <v>124232.7304</v>
       </c>
       <c r="L14" s="1">
-        <v>11.0022</v>
+        <v>11.0243</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>116697.1555</v>
+        <v>116221.8072</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0119</v>
+        <v>-0.0123</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>12.6545</v>
       </c>
       <c r="C2" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D2" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>12.2345</v>
       </c>
       <c r="C3" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D3" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E3" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="F3" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9668.1023</v>
+        <v>9629.413500000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9668.1023</v>
+        <v>9629.413500000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0332</v>
+        <v>-0.0371</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>12.1636</v>
       </c>
       <c r="C4" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D4" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E4" s="1">
-        <v>1607.5935</v>
+        <v>1604.377</v>
       </c>
       <c r="F4" s="1">
-        <v>822.125</v>
+        <v>820.4792</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19554.1239</v>
+        <v>19476.0134</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19554.1239</v>
+        <v>19476.0134</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.441</v>
+        <v>12.4659</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0058</v>
+        <v>-0.0078</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>11.8145</v>
       </c>
       <c r="C5" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D5" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E5" s="1">
-        <v>2429.7185</v>
+        <v>2424.8561</v>
       </c>
       <c r="F5" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>28705.9092</v>
+        <v>28591.2362</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>28705.9092</v>
+        <v>28591.2362</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.3471</v>
+        <v>12.3719</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2419,7 +2419,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0287</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,49 +2430,49 @@
         <v>11.2352</v>
       </c>
       <c r="C6" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D6" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E6" s="1">
-        <v>3276.136</v>
+        <v>3269.5791</v>
       </c>
       <c r="F6" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>36808.0435</v>
+        <v>36660.8101</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>36808.0435</v>
+        <v>36660.8101</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>12.2095</v>
+        <v>12.234</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>656.024</v>
+        <v>654.7112</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9343.976000000001</v>
+        <v>-9345.2888</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.049</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>10.8241</v>
       </c>
       <c r="C7" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D7" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E7" s="1">
-        <v>4166.1879</v>
+        <v>4157.8601</v>
       </c>
       <c r="F7" s="1">
-        <v>984.4721</v>
+        <v>982.3813</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>45095.2347</v>
+        <v>44914.8675</v>
       </c>
       <c r="I7" s="1">
-        <v>656.024</v>
+        <v>654.7112</v>
       </c>
       <c r="J7" s="1">
-        <v>45751.2587</v>
+        <v>45569.5787</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>12.0014</v>
+        <v>12.0254</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10656.024</v>
+        <v>-10654.7112</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0226</v>
+        <v>-0.0234</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>11.2543</v>
       </c>
       <c r="C8" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D8" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E8" s="1">
-        <v>5150.66</v>
+        <v>5140.2414</v>
       </c>
       <c r="F8" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>57967.0726</v>
+        <v>57734.1629</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>57967.0726</v>
+        <v>57734.1629</v>
       </c>
       <c r="K8" s="1">
-        <v>60656.024</v>
+        <v>60654.7112</v>
       </c>
       <c r="L8" s="1">
-        <v>11.7764</v>
+        <v>11.8</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0397</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,49 +2589,49 @@
         <v>10.5675</v>
       </c>
       <c r="C9" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D9" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E9" s="1">
-        <v>6039.2092</v>
+        <v>6027.0099</v>
       </c>
       <c r="F9" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>63819.3437</v>
+        <v>63563.2571</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>63819.3437</v>
+        <v>63563.2571</v>
       </c>
       <c r="K9" s="1">
-        <v>70656.024</v>
+        <v>70654.71120000001</v>
       </c>
       <c r="L9" s="1">
-        <v>11.6995</v>
+        <v>11.723</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1390.6782</v>
+        <v>1387.8652</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8609.3218</v>
+        <v>-8612.1348</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.061</v>
+        <v>-0.0616</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E10" s="1">
-        <v>6985.4979</v>
+        <v>6971.4129</v>
       </c>
       <c r="F10" s="1">
-        <v>1142.8392</v>
+        <v>1140.2689</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>69624.45759999999</v>
+        <v>69345.34110000001</v>
       </c>
       <c r="I10" s="1">
-        <v>1390.6782</v>
+        <v>1387.8652</v>
       </c>
       <c r="J10" s="1">
-        <v>71015.1358</v>
+        <v>70733.20630000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80656.024</v>
+        <v>80654.71120000001</v>
       </c>
       <c r="L10" s="1">
-        <v>11.5462</v>
+        <v>11.5693</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11390.6782</v>
+        <v>-11387.8652</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.038</v>
+        <v>-0.0385</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>10.0064</v>
       </c>
       <c r="C11" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D11" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E11" s="1">
-        <v>8128.3371</v>
+        <v>8111.6818</v>
       </c>
       <c r="F11" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>81335.39230000001</v>
+        <v>81006.4987</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>81335.39230000001</v>
+        <v>81006.4987</v>
       </c>
       <c r="K11" s="1">
-        <v>92046.7022</v>
+        <v>92042.5763</v>
       </c>
       <c r="L11" s="1">
-        <v>11.3242</v>
+        <v>11.3469</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2737,7 +2737,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.004</v>
+        <v>0.0034</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,49 +2748,49 @@
         <v>10.0129</v>
       </c>
       <c r="C12" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E12" s="1">
-        <v>9127.6975</v>
+        <v>9109.0388</v>
       </c>
       <c r="F12" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>91394.72229999999</v>
+        <v>91025.71339999999</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>91394.72229999999</v>
+        <v>91025.71339999999</v>
       </c>
       <c r="K12" s="1">
-        <v>102046.7022</v>
+        <v>102042.5763</v>
       </c>
       <c r="L12" s="1">
-        <v>11.1799</v>
+        <v>11.2023</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>2194.651</v>
+        <v>2190.1541</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7805.349</v>
+        <v>-7809.8459</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0005999999999999999</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>10.4583</v>
       </c>
       <c r="C13" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D13" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E13" s="1">
-        <v>10126.4092</v>
+        <v>10105.7496</v>
       </c>
       <c r="F13" s="1">
-        <v>1166.0261</v>
+        <v>1163.2603</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>105905.0249</v>
+        <v>105477.751</v>
       </c>
       <c r="I13" s="1">
-        <v>2194.651</v>
+        <v>2190.1541</v>
       </c>
       <c r="J13" s="1">
-        <v>108099.6759</v>
+        <v>107667.9051</v>
       </c>
       <c r="K13" s="1">
-        <v>112046.7022</v>
+        <v>112042.5763</v>
       </c>
       <c r="L13" s="1">
-        <v>11.0648</v>
+        <v>11.087</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12194.651</v>
+        <v>-12190.1541</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.06610000000000001</v>
+        <v>0.06569999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>10.3341</v>
       </c>
       <c r="C14" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D14" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E14" s="1">
-        <v>11292.4353</v>
+        <v>11269.0099</v>
       </c>
       <c r="F14" s="1">
-        <v>-11292.4353</v>
+        <v>-11269.0099</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>116697.1555</v>
+        <v>116221.8072</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>116697.1555</v>
+        <v>116221.8072</v>
       </c>
       <c r="K14" s="1">
-        <v>124241.3532</v>
+        <v>124232.7304</v>
       </c>
       <c r="L14" s="1">
-        <v>11.0022</v>
+        <v>11.0243</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>116697.1555</v>
+        <v>116221.8072</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0119</v>
+        <v>-0.0123</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>12.6545</v>
       </c>
       <c r="C2" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D2" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>12.2345</v>
       </c>
       <c r="C3" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D3" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E3" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="F3" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9668.1023</v>
+        <v>9629.413500000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9668.1023</v>
+        <v>9629.413500000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0332</v>
+        <v>-0.0371</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>12.1636</v>
       </c>
       <c r="C4" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D4" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E4" s="1">
-        <v>1607.5935</v>
+        <v>1604.377</v>
       </c>
       <c r="F4" s="1">
-        <v>822.125</v>
+        <v>820.4792</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>19554.1239</v>
+        <v>19476.0134</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19554.1239</v>
+        <v>19476.0134</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.441</v>
+        <v>12.4659</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0058</v>
+        <v>-0.0078</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>11.8145</v>
       </c>
       <c r="C5" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D5" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E5" s="1">
-        <v>2429.7185</v>
+        <v>2424.8561</v>
       </c>
       <c r="F5" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>28705.9092</v>
+        <v>28591.2362</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>28705.9092</v>
+        <v>28591.2362</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.3471</v>
+        <v>12.3719</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0287</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,49 +3198,49 @@
         <v>11.2352</v>
       </c>
       <c r="C6" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D6" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E6" s="1">
-        <v>3276.136</v>
+        <v>3269.5791</v>
       </c>
       <c r="F6" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>36808.0435</v>
+        <v>36660.8101</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>36808.0435</v>
+        <v>36660.8101</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>12.2095</v>
+        <v>12.234</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>656.024</v>
+        <v>654.7112</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9343.976000000001</v>
+        <v>-9345.2888</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.049</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>10.8241</v>
       </c>
       <c r="C7" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D7" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E7" s="1">
-        <v>4166.1879</v>
+        <v>4157.8601</v>
       </c>
       <c r="F7" s="1">
-        <v>984.4721</v>
+        <v>982.3813</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>45095.2347</v>
+        <v>44914.8675</v>
       </c>
       <c r="I7" s="1">
-        <v>656.024</v>
+        <v>654.7112</v>
       </c>
       <c r="J7" s="1">
-        <v>45751.2587</v>
+        <v>45569.5787</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>12.0014</v>
+        <v>12.0254</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10656.024</v>
+        <v>-10654.7112</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0226</v>
+        <v>-0.0234</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>11.2543</v>
       </c>
       <c r="C8" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D8" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E8" s="1">
-        <v>5150.66</v>
+        <v>5140.2414</v>
       </c>
       <c r="F8" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>57967.0726</v>
+        <v>57734.1629</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>57967.0726</v>
+        <v>57734.1629</v>
       </c>
       <c r="K8" s="1">
-        <v>60656.024</v>
+        <v>60654.7112</v>
       </c>
       <c r="L8" s="1">
-        <v>11.7764</v>
+        <v>11.8</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3346,7 +3346,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0397</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,49 +3357,49 @@
         <v>10.5675</v>
       </c>
       <c r="C9" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D9" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E9" s="1">
-        <v>6039.2092</v>
+        <v>6027.0099</v>
       </c>
       <c r="F9" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>63819.3437</v>
+        <v>63563.2571</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>63819.3437</v>
+        <v>63563.2571</v>
       </c>
       <c r="K9" s="1">
-        <v>70656.024</v>
+        <v>70654.71120000001</v>
       </c>
       <c r="L9" s="1">
-        <v>11.6995</v>
+        <v>11.723</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1390.6782</v>
+        <v>1387.8652</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8609.3218</v>
+        <v>-8612.1348</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.061</v>
+        <v>-0.0616</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E10" s="1">
-        <v>6985.4979</v>
+        <v>6971.4129</v>
       </c>
       <c r="F10" s="1">
-        <v>1142.8392</v>
+        <v>1140.2689</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>69624.45759999999</v>
+        <v>69345.34110000001</v>
       </c>
       <c r="I10" s="1">
-        <v>1390.6782</v>
+        <v>1387.8652</v>
       </c>
       <c r="J10" s="1">
-        <v>71015.1358</v>
+        <v>70733.20630000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80656.024</v>
+        <v>80654.71120000001</v>
       </c>
       <c r="L10" s="1">
-        <v>11.5462</v>
+        <v>11.5693</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11390.6782</v>
+        <v>-11387.8652</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.038</v>
+        <v>-0.0385</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>10.0064</v>
       </c>
       <c r="C11" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D11" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E11" s="1">
-        <v>8128.3371</v>
+        <v>8111.6818</v>
       </c>
       <c r="F11" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>81335.39230000001</v>
+        <v>81006.4987</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>81335.39230000001</v>
+        <v>81006.4987</v>
       </c>
       <c r="K11" s="1">
-        <v>92046.7022</v>
+        <v>92042.5763</v>
       </c>
       <c r="L11" s="1">
-        <v>11.3242</v>
+        <v>11.3469</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.004</v>
+        <v>0.0034</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,49 +3516,49 @@
         <v>10.0129</v>
       </c>
       <c r="C12" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E12" s="1">
-        <v>9127.6975</v>
+        <v>9109.0388</v>
       </c>
       <c r="F12" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>91394.72229999999</v>
+        <v>91025.71339999999</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>91394.72229999999</v>
+        <v>91025.71339999999</v>
       </c>
       <c r="K12" s="1">
-        <v>102046.7022</v>
+        <v>102042.5763</v>
       </c>
       <c r="L12" s="1">
-        <v>11.1799</v>
+        <v>11.2023</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>2194.651</v>
+        <v>2190.1541</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7805.349</v>
+        <v>-7809.8459</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0005999999999999999</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>10.4583</v>
       </c>
       <c r="C13" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D13" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E13" s="1">
-        <v>10126.4092</v>
+        <v>10105.7496</v>
       </c>
       <c r="F13" s="1">
-        <v>1166.0261</v>
+        <v>1163.2603</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>105905.0249</v>
+        <v>105477.751</v>
       </c>
       <c r="I13" s="1">
-        <v>2194.651</v>
+        <v>2190.1541</v>
       </c>
       <c r="J13" s="1">
-        <v>108099.6759</v>
+        <v>107667.9051</v>
       </c>
       <c r="K13" s="1">
-        <v>112046.7022</v>
+        <v>112042.5763</v>
       </c>
       <c r="L13" s="1">
-        <v>11.0648</v>
+        <v>11.087</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12194.651</v>
+        <v>-12190.1541</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.06610000000000001</v>
+        <v>0.06569999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>10.3341</v>
       </c>
       <c r="C14" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D14" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E14" s="1">
-        <v>11292.4353</v>
+        <v>11269.0099</v>
       </c>
       <c r="F14" s="1">
-        <v>-11292.4353</v>
+        <v>-11269.0099</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>116697.1555</v>
+        <v>116221.8072</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>116697.1555</v>
+        <v>116221.8072</v>
       </c>
       <c r="K14" s="1">
-        <v>124241.3532</v>
+        <v>124232.7304</v>
       </c>
       <c r="L14" s="1">
-        <v>11.0022</v>
+        <v>11.0243</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>116697.1555</v>
+        <v>116221.8072</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0119</v>
+        <v>-0.0123</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>12.6545</v>
       </c>
       <c r="C2" s="1">
-        <v>12.6545</v>
+        <v>12.6292</v>
       </c>
       <c r="D2" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>12.2345</v>
       </c>
       <c r="C3" s="1">
-        <v>12.2345</v>
+        <v>12.21</v>
       </c>
       <c r="D3" s="1">
-        <v>12.2345</v>
+        <v>12.259</v>
       </c>
       <c r="E3" s="1">
-        <v>790.2327</v>
+        <v>788.6498</v>
       </c>
       <c r="F3" s="1">
-        <v>817.3607</v>
+        <v>815.7272</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9668.1023</v>
+        <v>9629.413500000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9668.1023</v>
+        <v>9629.413500000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.6545</v>
+        <v>12.6799</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0332</v>
+        <v>-0.0371</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>12.1636</v>
       </c>
       <c r="C4" s="1">
-        <v>12.1636</v>
+        <v>12.1393</v>
       </c>
       <c r="D4" s="1">
-        <v>12.1636</v>
+        <v>12.188</v>
       </c>
       <c r="E4" s="1">
-        <v>1607.5935</v>
+        <v>1604.377</v>
       </c>
       <c r="F4" s="1">
-        <v>822.125</v>
+        <v>820.4792</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19554.1239</v>
+        <v>19476.0134</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19554.1239</v>
+        <v>19476.0134</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.441</v>
+        <v>12.4659</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0058</v>
+        <v>-0.0078</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>11.8145</v>
       </c>
       <c r="C5" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D5" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E5" s="1">
-        <v>2429.7185</v>
+        <v>2424.8561</v>
       </c>
       <c r="F5" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>28705.9092</v>
+        <v>28591.2362</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>28705.9092</v>
+        <v>28591.2362</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.3471</v>
+        <v>12.3719</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0287</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,49 +3966,49 @@
         <v>11.2352</v>
       </c>
       <c r="C6" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D6" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E6" s="1">
-        <v>3276.136</v>
+        <v>3269.5791</v>
       </c>
       <c r="F6" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>36808.0435</v>
+        <v>36660.8101</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>36808.0435</v>
+        <v>36660.8101</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>12.2095</v>
+        <v>12.234</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>656.024</v>
+        <v>654.7112</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9343.976000000001</v>
+        <v>-9345.2888</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.049</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>10.8241</v>
       </c>
       <c r="C7" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D7" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E7" s="1">
-        <v>4166.1879</v>
+        <v>4157.8601</v>
       </c>
       <c r="F7" s="1">
-        <v>984.4721</v>
+        <v>982.3813</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>45095.2347</v>
+        <v>44914.8675</v>
       </c>
       <c r="I7" s="1">
-        <v>656.024</v>
+        <v>654.7112</v>
       </c>
       <c r="J7" s="1">
-        <v>45751.2587</v>
+        <v>45569.5787</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>12.0014</v>
+        <v>12.0254</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10656.024</v>
+        <v>-10654.7112</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0226</v>
+        <v>-0.0234</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>11.2543</v>
       </c>
       <c r="C8" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D8" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E8" s="1">
-        <v>5150.66</v>
+        <v>5140.2414</v>
       </c>
       <c r="F8" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>57967.0726</v>
+        <v>57734.1629</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>57967.0726</v>
+        <v>57734.1629</v>
       </c>
       <c r="K8" s="1">
-        <v>60656.024</v>
+        <v>60654.7112</v>
       </c>
       <c r="L8" s="1">
-        <v>11.7764</v>
+        <v>11.8</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0397</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,49 +4125,49 @@
         <v>10.5675</v>
       </c>
       <c r="C9" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D9" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E9" s="1">
-        <v>6039.2092</v>
+        <v>6027.0099</v>
       </c>
       <c r="F9" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>63819.3437</v>
+        <v>63563.2571</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>63819.3437</v>
+        <v>63563.2571</v>
       </c>
       <c r="K9" s="1">
-        <v>70656.024</v>
+        <v>70654.71120000001</v>
       </c>
       <c r="L9" s="1">
-        <v>11.6995</v>
+        <v>11.723</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1390.6782</v>
+        <v>1387.8652</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8609.3218</v>
+        <v>-8612.1348</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.061</v>
+        <v>-0.0616</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E10" s="1">
-        <v>6985.4979</v>
+        <v>6971.4129</v>
       </c>
       <c r="F10" s="1">
-        <v>1142.8392</v>
+        <v>1140.2689</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>69624.45759999999</v>
+        <v>69345.34110000001</v>
       </c>
       <c r="I10" s="1">
-        <v>1390.6782</v>
+        <v>1387.8652</v>
       </c>
       <c r="J10" s="1">
-        <v>71015.1358</v>
+        <v>70733.20630000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80656.024</v>
+        <v>80654.71120000001</v>
       </c>
       <c r="L10" s="1">
-        <v>11.5462</v>
+        <v>11.5693</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11390.6782</v>
+        <v>-11387.8652</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.038</v>
+        <v>-0.0385</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>10.0064</v>
       </c>
       <c r="C11" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D11" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E11" s="1">
-        <v>8128.3371</v>
+        <v>8111.6818</v>
       </c>
       <c r="F11" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>81335.39230000001</v>
+        <v>81006.4987</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>81335.39230000001</v>
+        <v>81006.4987</v>
       </c>
       <c r="K11" s="1">
-        <v>92046.7022</v>
+        <v>92042.5763</v>
       </c>
       <c r="L11" s="1">
-        <v>11.3242</v>
+        <v>11.3469</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4273,7 +4273,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.004</v>
+        <v>0.0034</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,49 +4284,49 @@
         <v>10.0129</v>
       </c>
       <c r="C12" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E12" s="1">
-        <v>9127.6975</v>
+        <v>9109.0388</v>
       </c>
       <c r="F12" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>91394.72229999999</v>
+        <v>91025.71339999999</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>91394.72229999999</v>
+        <v>91025.71339999999</v>
       </c>
       <c r="K12" s="1">
-        <v>102046.7022</v>
+        <v>102042.5763</v>
       </c>
       <c r="L12" s="1">
-        <v>11.1799</v>
+        <v>11.2023</v>
       </c>
       <c r="M12" s="1">
         <v>0.3</v>
       </c>
       <c r="N12" s="1">
-        <v>2194.651</v>
+        <v>2190.1541</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7805.349</v>
+        <v>-7809.8459</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0005999999999999999</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>10.4583</v>
       </c>
       <c r="C13" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D13" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E13" s="1">
-        <v>10126.4092</v>
+        <v>10105.7496</v>
       </c>
       <c r="F13" s="1">
-        <v>1166.0261</v>
+        <v>1163.2603</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>105905.0249</v>
+        <v>105477.751</v>
       </c>
       <c r="I13" s="1">
-        <v>2194.651</v>
+        <v>2190.1541</v>
       </c>
       <c r="J13" s="1">
-        <v>108099.6759</v>
+        <v>107667.9051</v>
       </c>
       <c r="K13" s="1">
-        <v>112046.7022</v>
+        <v>112042.5763</v>
       </c>
       <c r="L13" s="1">
-        <v>11.0648</v>
+        <v>11.087</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12194.651</v>
+        <v>-12190.1541</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.06610000000000001</v>
+        <v>0.06569999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>10.3341</v>
       </c>
       <c r="C14" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D14" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E14" s="1">
-        <v>11292.4353</v>
+        <v>11269.0099</v>
       </c>
       <c r="F14" s="1">
-        <v>-11292.4353</v>
+        <v>-11269.0099</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>116697.1555</v>
+        <v>116221.8072</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>116697.1555</v>
+        <v>116221.8072</v>
       </c>
       <c r="K14" s="1">
-        <v>124241.3532</v>
+        <v>124232.7304</v>
       </c>
       <c r="L14" s="1">
-        <v>11.0022</v>
+        <v>11.0243</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>116697.1555</v>
+        <v>116221.8072</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0119</v>
+        <v>-0.0123</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>11.0021</v>
+        <v>11.0242</v>
       </c>
       <c r="D3" s="1">
-        <v>11.0022</v>
+        <v>11.0243</v>
       </c>
       <c r="E3" s="1">
-        <v>11.0022</v>
+        <v>11.0243</v>
       </c>
       <c r="F3" s="1">
-        <v>11.0022</v>
+        <v>11.0243</v>
       </c>
       <c r="G3" s="1">
-        <v>11.0022</v>
+        <v>11.0243</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.1942</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.1402</v>
+        <v>-0.1528</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.1397</v>
+        <v>-0.1523</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.1397</v>
+        <v>-0.1523</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.1397</v>
+        <v>-0.1523</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.1397</v>
+        <v>-0.1523</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.115</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1198</v>
+        <v>0.1206</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1205</v>
+        <v>0.1213</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1205</v>
+        <v>0.1213</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1205</v>
+        <v>0.1213</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1205</v>
+        <v>0.1213</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-1.8653</v>
       </c>
       <c r="C6" s="4">
-        <v>-1.3401</v>
+        <v>-1.4351</v>
       </c>
       <c r="D6" s="4">
-        <v>-1.328</v>
+        <v>-1.4229</v>
       </c>
       <c r="E6" s="4">
-        <v>-1.328</v>
+        <v>-1.4229</v>
       </c>
       <c r="F6" s="4">
-        <v>-1.328</v>
+        <v>-1.4229</v>
       </c>
       <c r="G6" s="4">
-        <v>-1.328</v>
+        <v>-1.4229</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.0516</v>
+        <v>-0.0589</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.0507</v>
+        <v>-0.0579</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.0507</v>
+        <v>-0.0579</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.0507</v>
+        <v>-0.0579</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.0507</v>
+        <v>-0.0579</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>4192.1326</v>
+        <v>4183.7074</v>
       </c>
       <c r="D8" s="1">
-        <v>4241.3532</v>
+        <v>4232.7304</v>
       </c>
       <c r="E8" s="1">
-        <v>4241.3532</v>
+        <v>4232.7304</v>
       </c>
       <c r="F8" s="1">
-        <v>4241.3532</v>
+        <v>4232.7304</v>
       </c>
       <c r="G8" s="1">
-        <v>4241.3532</v>
+        <v>4232.7304</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P74_KFSDIV.xlsx
+++ b/output/1Y_P74_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>5214.954</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9359</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.9357</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.9357</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9357</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9357</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
